--- a/Code/Results/Cases/Case_2_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.470968157158325</v>
+        <v>1.441245728520585</v>
       </c>
       <c r="C2">
-        <v>0.5852142728286651</v>
+        <v>0.2192341004742673</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02809978742592989</v>
+        <v>0.07501764710213354</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.523587961224024</v>
+        <v>0.7036557544031581</v>
       </c>
       <c r="H2">
-        <v>0.3665342432262406</v>
+        <v>0.7920315956999104</v>
       </c>
       <c r="I2">
-        <v>0.2862904598341345</v>
+        <v>0.7014044602702256</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3428278983440407</v>
+        <v>0.23787786047221</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.011447303591126</v>
+        <v>1.305459485923393</v>
       </c>
       <c r="C3">
-        <v>0.5150852448488763</v>
+        <v>0.1968160821348022</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02835604500602695</v>
+        <v>0.07566299962906431</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.490683817899324</v>
+        <v>0.7079001638213498</v>
       </c>
       <c r="H3">
-        <v>0.3621860483861497</v>
+        <v>0.8010243357012854</v>
       </c>
       <c r="I3">
-        <v>0.2960904707906948</v>
+        <v>0.7145695927389362</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3006290677805197</v>
+        <v>0.2276032504373973</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.730858287841784</v>
+        <v>1.222246056703511</v>
       </c>
       <c r="C4">
-        <v>0.4721858014826807</v>
+        <v>0.1829680196399295</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02856834114821538</v>
+        <v>0.07609398776366838</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.4731914164395903</v>
+        <v>0.7113772259777562</v>
       </c>
       <c r="H4">
-        <v>0.3610328968985073</v>
+        <v>0.8071876079118425</v>
       </c>
       <c r="I4">
-        <v>0.3038189314335753</v>
+        <v>0.7233349092871144</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.275115674265777</v>
+        <v>0.2214215673903084</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.616831859218109</v>
+        <v>1.188377272081198</v>
       </c>
       <c r="C5">
-        <v>0.4547317238111646</v>
+        <v>0.1773039425750085</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02866820551885496</v>
+        <v>0.07627835890234813</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.4666923754686962</v>
+        <v>0.7130119274731896</v>
       </c>
       <c r="H5">
-        <v>0.3609203043923799</v>
+        <v>0.809860105530646</v>
       </c>
       <c r="I5">
-        <v>0.3073726657630509</v>
+        <v>0.7270777180721311</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.264807458322764</v>
+        <v>0.2189343838327886</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.597914821731365</v>
+        <v>1.182755919383794</v>
       </c>
       <c r="C6">
-        <v>0.4518348206296707</v>
+        <v>0.1763621680045162</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02868558122210096</v>
+        <v>0.07630950159685579</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.4656497546945673</v>
+        <v>0.7132964847794625</v>
       </c>
       <c r="H6">
-        <v>0.3609225178428517</v>
+        <v>0.8103135775271681</v>
       </c>
       <c r="I6">
-        <v>0.3079864540473274</v>
+        <v>0.7277095115023648</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2631008344694976</v>
+        <v>0.2185233150608354</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.729319304933483</v>
+        <v>1.221789121386735</v>
       </c>
       <c r="C7">
-        <v>0.4719503129052214</v>
+        <v>0.1828917163554422</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0285696344889006</v>
+        <v>0.07609643886332496</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.4731012869623044</v>
+        <v>0.7113983920424118</v>
       </c>
       <c r="H7">
-        <v>0.3610299622293525</v>
+        <v>0.8072229992095856</v>
       </c>
       <c r="I7">
-        <v>0.3038652543114715</v>
+        <v>0.7233846950535501</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2749763090217101</v>
+        <v>0.2213878952212838</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312154124110407</v>
+        <v>1.394394095420751</v>
       </c>
       <c r="C8">
-        <v>0.5609927348282895</v>
+        <v>0.2115216923345429</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02817645018454318</v>
+        <v>0.07523295729128865</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.5116472753517058</v>
+        <v>0.704937705605559</v>
       </c>
       <c r="H8">
-        <v>0.3647052024293203</v>
+        <v>0.7949988410846203</v>
       </c>
       <c r="I8">
-        <v>0.2892981549602602</v>
+        <v>0.7058019209348672</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3281884370391026</v>
+        <v>0.23430880314109</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.471257945511752</v>
+        <v>1.734108166157171</v>
       </c>
       <c r="C9">
-        <v>0.7374983682403808</v>
+        <v>0.2670037475015477</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02786396959101189</v>
+        <v>0.07381511726755718</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6113101543075601</v>
+        <v>0.6992359111401498</v>
       </c>
       <c r="H9">
-        <v>0.3851227619119157</v>
+        <v>0.7761390900846976</v>
       </c>
       <c r="I9">
-        <v>0.275576584095937</v>
+        <v>0.676758779234035</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4362338831855794</v>
+        <v>0.2606569244463799</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.338596289916609</v>
+        <v>1.984434110953657</v>
       </c>
       <c r="C10">
-        <v>0.8693018925700926</v>
+        <v>0.3073671857611373</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02794775785905834</v>
+        <v>0.07294109659562764</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.7031195179917944</v>
+        <v>0.6993739873113327</v>
       </c>
       <c r="H10">
-        <v>0.4099706063538378</v>
+        <v>0.7654273766877537</v>
       </c>
       <c r="I10">
-        <v>0.2764704487166014</v>
+        <v>0.6587709172304024</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5187089505492537</v>
+        <v>0.2806371151855984</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.738067978330889</v>
+        <v>2.098473065215671</v>
       </c>
       <c r="C11">
-        <v>0.9299694526907558</v>
+        <v>0.3256440300592089</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0280621946709676</v>
+        <v>0.07257983814447577</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.7498994385858424</v>
+        <v>0.7003936028547315</v>
       </c>
       <c r="H11">
-        <v>0.4238613054114779</v>
+        <v>0.7612432830541422</v>
       </c>
       <c r="I11">
-        <v>0.27974063102765</v>
+        <v>0.6513229288531903</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5571105399266827</v>
+        <v>0.2898632803407395</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.890181377090698</v>
+        <v>2.141679661706974</v>
       </c>
       <c r="C12">
-        <v>0.9530676440044488</v>
+        <v>0.3325528293979971</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02811726722119445</v>
+        <v>0.07244826062611409</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.7684268375239469</v>
+        <v>0.700918671889184</v>
       </c>
       <c r="H12">
-        <v>0.4295356074269279</v>
+        <v>0.7597584162401461</v>
       </c>
       <c r="I12">
-        <v>0.2814359225128129</v>
+        <v>0.6486088781003261</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5717987143831351</v>
+        <v>0.2933767785942223</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.857381266268419</v>
+        <v>2.132373364071839</v>
       </c>
       <c r="C13">
-        <v>0.9480870997698219</v>
+        <v>0.3310654414615897</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02810487140036066</v>
+        <v>0.07247636592844664</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.764398910921841</v>
+        <v>0.7007993865443893</v>
       </c>
       <c r="H13">
-        <v>0.4282944024601392</v>
+        <v>0.7600737726481412</v>
       </c>
       <c r="I13">
-        <v>0.2810497164871819</v>
+        <v>0.6491886571027621</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.568628515613625</v>
+        <v>0.2926192048709169</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.75056473338816</v>
+        <v>2.102027252910375</v>
       </c>
       <c r="C14">
-        <v>0.9318671163236161</v>
+        <v>0.3262126669129657</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02806648565362657</v>
+        <v>0.07256890851389208</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.7514068470782433</v>
+        <v>0.7004340076927775</v>
       </c>
       <c r="H14">
-        <v>0.4243195745835493</v>
+        <v>0.7611191238693777</v>
       </c>
       <c r="I14">
-        <v>0.2798706696253461</v>
+        <v>0.6510975071338336</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5583158943067588</v>
+        <v>0.2901519419146155</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.685250462940814</v>
+        <v>2.083442283500176</v>
       </c>
       <c r="C15">
-        <v>0.9219488656911778</v>
+        <v>0.3232386058193981</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02804452574812544</v>
+        <v>0.07262627367415497</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7435575821712632</v>
+        <v>0.7002283405094545</v>
       </c>
       <c r="H15">
-        <v>0.4219401480056604</v>
+        <v>0.7617724126666303</v>
       </c>
       <c r="I15">
-        <v>0.2792094008896626</v>
+        <v>0.6522806018245291</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5520187802101191</v>
+        <v>0.2886432452900181</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.312600021104174</v>
+        <v>1.976984608841235</v>
       </c>
       <c r="C16">
-        <v>0.8653532820505063</v>
+        <v>0.3061710410472074</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02794187853952756</v>
+        <v>0.07296543671357192</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.7001708735493963</v>
+        <v>0.6993267239141545</v>
       </c>
       <c r="H16">
-        <v>0.4091183790681612</v>
+        <v>0.7657147203819079</v>
       </c>
       <c r="I16">
-        <v>0.2763181089004831</v>
+        <v>0.659272504560203</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5162186950138619</v>
+        <v>0.2800369251449553</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.085341730975131</v>
+        <v>1.911717575949126</v>
       </c>
       <c r="C17">
-        <v>0.8308307836593656</v>
+        <v>0.2956789033792404</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02789897648115947</v>
+        <v>0.07318280773427688</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.674901255731541</v>
+        <v>0.6990196498187657</v>
       </c>
       <c r="H17">
-        <v>0.4019438879936104</v>
+        <v>0.768309966436064</v>
       </c>
       <c r="I17">
-        <v>0.2753084734938369</v>
+        <v>0.6637504887870307</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4944958434446107</v>
+        <v>0.2747923615655168</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.955082485569847</v>
+        <v>1.874193246531377</v>
       </c>
       <c r="C18">
-        <v>0.8110396331464074</v>
+        <v>0.2896361359338187</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02788143441519075</v>
+        <v>0.07331125422000184</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6608328730453934</v>
+        <v>0.6989330055191942</v>
       </c>
       <c r="H18">
-        <v>0.398058061078558</v>
+        <v>0.7698674774877361</v>
       </c>
       <c r="I18">
-        <v>0.2749943169645874</v>
+        <v>0.6663952271283726</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4820833010732315</v>
+        <v>0.2717887271330142</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.911052978253508</v>
+        <v>1.861490857480987</v>
       </c>
       <c r="C19">
-        <v>0.8043492511812076</v>
+        <v>0.2875887924323877</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02787669814162719</v>
+        <v>0.07335533151968576</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.6561469677490237</v>
+        <v>0.6989190809285333</v>
       </c>
       <c r="H19">
-        <v>0.3967825248335402</v>
+        <v>0.7704059365518816</v>
       </c>
       <c r="I19">
-        <v>0.2749324316170387</v>
+        <v>0.6673025408473556</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.477894132348581</v>
+        <v>0.2707739625499528</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.109485872068205</v>
+        <v>1.918663762766982</v>
       </c>
       <c r="C20">
-        <v>0.8344988504087496</v>
+        <v>0.2967966344327237</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0279027998272614</v>
+        <v>0.07315931423304178</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.677542384416796</v>
+        <v>0.6990430162057635</v>
       </c>
       <c r="H20">
-        <v>0.402682417180003</v>
+        <v>0.7680269883588267</v>
       </c>
       <c r="I20">
-        <v>0.2753880511177691</v>
+        <v>0.6632666411340686</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4967996716456042</v>
+        <v>0.2753493189562306</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.781915330625793</v>
+        <v>2.110940038980914</v>
       </c>
       <c r="C21">
-        <v>0.9366277404825212</v>
+        <v>0.3276383772666804</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02807743547999664</v>
+        <v>0.07254158477342365</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.7552000899291613</v>
+        <v>0.7005375459358021</v>
       </c>
       <c r="H21">
-        <v>0.4254754777492025</v>
+        <v>0.7608093727151441</v>
       </c>
       <c r="I21">
-        <v>0.2802041985739336</v>
+        <v>0.6505339401193169</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5613408257435566</v>
+        <v>0.2908761005332678</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.226369315509942</v>
+        <v>2.236734463656205</v>
       </c>
       <c r="C22">
-        <v>1.004114212774937</v>
+        <v>0.3477238385320334</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02826039433213978</v>
+        <v>0.07216830681410968</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.8107419016534863</v>
+        <v>0.7023249287747859</v>
       </c>
       <c r="H22">
-        <v>0.4428093372783195</v>
+        <v>0.7566727911243731</v>
       </c>
       <c r="I22">
-        <v>0.2860398739721077</v>
+        <v>0.6428325364732785</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6043856001182064</v>
+        <v>0.3011388859071218</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.988651285044057</v>
+        <v>2.16958400969861</v>
       </c>
       <c r="C23">
-        <v>0.9680195691015854</v>
+        <v>0.3370104039234718</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02815617706295903</v>
+        <v>0.07236474735342924</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.7806271072690123</v>
+        <v>0.7012963419519735</v>
       </c>
       <c r="H23">
-        <v>0.4333197492202316</v>
+        <v>0.7588272695471261</v>
       </c>
       <c r="I23">
-        <v>0.2826630699584811</v>
+        <v>0.6468859513306171</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5813258596437976</v>
+        <v>0.295650895982277</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.098569086918701</v>
+        <v>1.915523396117692</v>
       </c>
       <c r="C24">
-        <v>0.8328403437700445</v>
+        <v>0.2962913415436788</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02790104916303804</v>
+        <v>0.07316992481463558</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6763469058342082</v>
+        <v>0.699032172349618</v>
       </c>
       <c r="H24">
-        <v>0.4023477871940884</v>
+        <v>0.7681547188548876</v>
       </c>
       <c r="I24">
-        <v>0.2753512479740579</v>
+        <v>0.663485169776596</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4957578749591818</v>
+        <v>0.2750974825943899</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.155385294421194</v>
+        <v>1.642075906912055</v>
       </c>
       <c r="C25">
-        <v>0.6894519377221684</v>
+        <v>0.2520647889296583</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02789608639292318</v>
+        <v>0.07416921855167402</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.5813899752038623</v>
+        <v>0.7000242516108699</v>
       </c>
       <c r="H25">
-        <v>0.3780101194132328</v>
+        <v>0.7806909851458101</v>
       </c>
       <c r="I25">
-        <v>0.277511527664732</v>
+        <v>0.684029992913505</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4065269198074191</v>
+        <v>0.2534202567866828</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.441245728520585</v>
+        <v>3.470968157158381</v>
       </c>
       <c r="C2">
-        <v>0.2192341004742673</v>
+        <v>0.5852142728287504</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07501764710213354</v>
+        <v>0.02809978742592012</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7036557544031581</v>
+        <v>0.5235879612239955</v>
       </c>
       <c r="H2">
-        <v>0.7920315956999104</v>
+        <v>0.3665342432262548</v>
       </c>
       <c r="I2">
-        <v>0.7014044602702256</v>
+        <v>0.2862904598341238</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.23787786047221</v>
+        <v>0.3428278983439697</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.305459485923393</v>
+        <v>3.011447303591297</v>
       </c>
       <c r="C3">
-        <v>0.1968160821348022</v>
+        <v>0.5150852448490468</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07566299962906431</v>
+        <v>0.02835604500603406</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.7079001638213498</v>
+        <v>0.490683817899324</v>
       </c>
       <c r="H3">
-        <v>0.8010243357012854</v>
+        <v>0.3621860483862633</v>
       </c>
       <c r="I3">
-        <v>0.7145695927389362</v>
+        <v>0.2960904707907055</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2276032504373973</v>
+        <v>0.3006290677805339</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.222246056703511</v>
+        <v>2.730858287841841</v>
       </c>
       <c r="C4">
-        <v>0.1829680196399295</v>
+        <v>0.472185801482965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07609398776366838</v>
+        <v>0.02856834114821716</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7113772259777562</v>
+        <v>0.4731914164396613</v>
       </c>
       <c r="H4">
-        <v>0.8071876079118425</v>
+        <v>0.3610328968985073</v>
       </c>
       <c r="I4">
-        <v>0.7233349092871144</v>
+        <v>0.3038189314335753</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2214215673903084</v>
+        <v>0.2751156742658907</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.188377272081198</v>
+        <v>2.616831859218053</v>
       </c>
       <c r="C5">
-        <v>0.1773039425750085</v>
+        <v>0.4547317238112782</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07627835890234813</v>
+        <v>0.02866820551885407</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.7130119274731896</v>
+        <v>0.466692375468682</v>
       </c>
       <c r="H5">
-        <v>0.809860105530646</v>
+        <v>0.3609203043923799</v>
       </c>
       <c r="I5">
-        <v>0.7270777180721311</v>
+        <v>0.3073726657630367</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2189343838327886</v>
+        <v>0.2648074583228066</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.182755919383794</v>
+        <v>2.597914821731592</v>
       </c>
       <c r="C6">
-        <v>0.1763621680045162</v>
+        <v>0.4518348206294149</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07630950159685579</v>
+        <v>0.0286855812221134</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7132964847794625</v>
+        <v>0.4656497546945957</v>
       </c>
       <c r="H6">
-        <v>0.8103135775271681</v>
+        <v>0.3609225178428659</v>
       </c>
       <c r="I6">
-        <v>0.7277095115023648</v>
+        <v>0.307986454047338</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2185233150608354</v>
+        <v>0.2631008344696539</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.221789121386735</v>
+        <v>2.729319304933426</v>
       </c>
       <c r="C7">
-        <v>0.1828917163554422</v>
+        <v>0.471950312905733</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07609643886332496</v>
+        <v>0.02856963448888372</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7113983920424118</v>
+        <v>0.4731012869623044</v>
       </c>
       <c r="H7">
-        <v>0.8072229992095856</v>
+        <v>0.3610299622292388</v>
       </c>
       <c r="I7">
-        <v>0.7233846950535501</v>
+        <v>0.3038652543114537</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2213878952212838</v>
+        <v>0.2749763090217243</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.394394095420751</v>
+        <v>3.31215412411035</v>
       </c>
       <c r="C8">
-        <v>0.2115216923345429</v>
+        <v>0.5609927348281474</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07523295729128865</v>
+        <v>0.02817645018453607</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.704937705605559</v>
+        <v>0.5116472753518195</v>
       </c>
       <c r="H8">
-        <v>0.7949988410846203</v>
+        <v>0.3647052024293345</v>
       </c>
       <c r="I8">
-        <v>0.7058019209348672</v>
+        <v>0.289298154960278</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.23430880314109</v>
+        <v>0.3281884370391737</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.734108166157171</v>
+        <v>4.471257945511752</v>
       </c>
       <c r="C9">
-        <v>0.2670037475015477</v>
+        <v>0.7374983682407787</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07381511726755718</v>
+        <v>0.02786396959099591</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.6992359111401498</v>
+        <v>0.6113101543074748</v>
       </c>
       <c r="H9">
-        <v>0.7761390900846976</v>
+        <v>0.3851227619119157</v>
       </c>
       <c r="I9">
-        <v>0.676758779234035</v>
+        <v>0.275576584095937</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2606569244463799</v>
+        <v>0.4362338831856647</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.984434110953657</v>
+        <v>5.338596289916666</v>
       </c>
       <c r="C10">
-        <v>0.3073671857611373</v>
+        <v>0.8693018925701779</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07294109659562764</v>
+        <v>0.0279477578590388</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6993739873113327</v>
+        <v>0.7031195179918086</v>
       </c>
       <c r="H10">
-        <v>0.7654273766877537</v>
+        <v>0.4099706063538378</v>
       </c>
       <c r="I10">
-        <v>0.6587709172304024</v>
+        <v>0.2764704487166085</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2806371151855984</v>
+        <v>0.5187089505492253</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.098473065215671</v>
+        <v>5.738067978330719</v>
       </c>
       <c r="C11">
-        <v>0.3256440300592089</v>
+        <v>0.9299694526909548</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07257983814447577</v>
+        <v>0.02806219467096405</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.7003936028547315</v>
+        <v>0.7498994385857429</v>
       </c>
       <c r="H11">
-        <v>0.7612432830541422</v>
+        <v>0.4238613054114779</v>
       </c>
       <c r="I11">
-        <v>0.6513229288531903</v>
+        <v>0.27974063102765</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2898632803407395</v>
+        <v>0.5571105399267253</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.141679661706974</v>
+        <v>5.890181377090698</v>
       </c>
       <c r="C12">
-        <v>0.3325528293979971</v>
+        <v>0.953067644004193</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07244826062611409</v>
+        <v>0.02811726722122287</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.700918671889184</v>
+        <v>0.7684268375238901</v>
       </c>
       <c r="H12">
-        <v>0.7597584162401461</v>
+        <v>0.4295356074269421</v>
       </c>
       <c r="I12">
-        <v>0.6486088781003261</v>
+        <v>0.2814359225128058</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2933767785942223</v>
+        <v>0.5717987143831209</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.132373364071839</v>
+        <v>5.857381266268419</v>
       </c>
       <c r="C13">
-        <v>0.3310654414615897</v>
+        <v>0.9480870997695945</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07247636592844664</v>
+        <v>0.02810487140035178</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.7007993865443893</v>
+        <v>0.7643989109218268</v>
       </c>
       <c r="H13">
-        <v>0.7600737726481412</v>
+        <v>0.428294402460125</v>
       </c>
       <c r="I13">
-        <v>0.6491886571027621</v>
+        <v>0.281049716487189</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2926192048709169</v>
+        <v>0.5686285156136108</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.102027252910375</v>
+        <v>5.750564733388273</v>
       </c>
       <c r="C14">
-        <v>0.3262126669129657</v>
+        <v>0.9318671163233319</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07256890851389208</v>
+        <v>0.02806648565363901</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.7004340076927775</v>
+        <v>0.7514068470782291</v>
       </c>
       <c r="H14">
-        <v>0.7611191238693777</v>
+        <v>0.4243195745834356</v>
       </c>
       <c r="I14">
-        <v>0.6510975071338336</v>
+        <v>0.279870669625339</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2901519419146155</v>
+        <v>0.5583158943067303</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.083442283500176</v>
+        <v>5.685250462940871</v>
       </c>
       <c r="C15">
-        <v>0.3232386058193981</v>
+        <v>0.9219488656914052</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07262627367415497</v>
+        <v>0.02804452574811123</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.7002283405094545</v>
+        <v>0.7435575821712206</v>
       </c>
       <c r="H15">
-        <v>0.7617724126666303</v>
+        <v>0.4219401480056462</v>
       </c>
       <c r="I15">
-        <v>0.6522806018245291</v>
+        <v>0.2792094008896626</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2886432452900181</v>
+        <v>0.5520187802101049</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.976984608841235</v>
+        <v>5.312600021104004</v>
       </c>
       <c r="C16">
-        <v>0.3061710410472074</v>
+        <v>0.8653532820505347</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07296543671357192</v>
+        <v>0.02794187853951335</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6993267239141545</v>
+        <v>0.7001708735493679</v>
       </c>
       <c r="H16">
-        <v>0.7657147203819079</v>
+        <v>0.4091183790681612</v>
       </c>
       <c r="I16">
-        <v>0.659272504560203</v>
+        <v>0.2763181089005116</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2800369251449553</v>
+        <v>0.5162186950138192</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.911717575949126</v>
+        <v>5.085341730975188</v>
       </c>
       <c r="C17">
-        <v>0.2956789033792404</v>
+        <v>0.8308307836593656</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07318280773427688</v>
+        <v>0.02789897648115236</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.6990196498187657</v>
+        <v>0.6749012557315552</v>
       </c>
       <c r="H17">
-        <v>0.768309966436064</v>
+        <v>0.4019438879936104</v>
       </c>
       <c r="I17">
-        <v>0.6637504887870307</v>
+        <v>0.2753084734938405</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2747923615655168</v>
+        <v>0.4944958434445681</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.874193246531377</v>
+        <v>4.95508248556996</v>
       </c>
       <c r="C18">
-        <v>0.2896361359338187</v>
+        <v>0.8110396331464642</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07331125422000184</v>
+        <v>0.02788143441519786</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6989330055191942</v>
+        <v>0.6608328730453792</v>
       </c>
       <c r="H18">
-        <v>0.7698674774877361</v>
+        <v>0.398058061078558</v>
       </c>
       <c r="I18">
-        <v>0.6663952271283726</v>
+        <v>0.2749943169646016</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2717887271330142</v>
+        <v>0.4820833010732883</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.861490857480987</v>
+        <v>4.911052978253281</v>
       </c>
       <c r="C19">
-        <v>0.2875887924323877</v>
+        <v>0.8043492511812644</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07335533151968576</v>
+        <v>0.02787669814162186</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.6989190809285333</v>
+        <v>0.6561469677490379</v>
       </c>
       <c r="H19">
-        <v>0.7704059365518816</v>
+        <v>0.3967825248335402</v>
       </c>
       <c r="I19">
-        <v>0.6673025408473556</v>
+        <v>0.2749324316170352</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2707739625499528</v>
+        <v>0.4778941323486805</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.918663762766982</v>
+        <v>5.109485872068035</v>
       </c>
       <c r="C20">
-        <v>0.2967966344327237</v>
+        <v>0.8344988504086928</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07315931423304178</v>
+        <v>0.02790279982724719</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6990430162057635</v>
+        <v>0.6775423844168813</v>
       </c>
       <c r="H20">
-        <v>0.7680269883588267</v>
+        <v>0.4026824171800314</v>
       </c>
       <c r="I20">
-        <v>0.6632666411340686</v>
+        <v>0.2753880511177691</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2753493189562306</v>
+        <v>0.496799671645519</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.110940038980914</v>
+        <v>5.781915330625736</v>
       </c>
       <c r="C21">
-        <v>0.3276383772666804</v>
+        <v>0.9366277404824075</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07254158477342365</v>
+        <v>0.02807743548000907</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7005375459358021</v>
+        <v>0.7552000899291755</v>
       </c>
       <c r="H21">
-        <v>0.7608093727151441</v>
+        <v>0.4254754777492167</v>
       </c>
       <c r="I21">
-        <v>0.6505339401193169</v>
+        <v>0.2802041985739336</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2908761005332678</v>
+        <v>0.5613408257435282</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.236734463656205</v>
+        <v>6.226369315509942</v>
       </c>
       <c r="C22">
-        <v>0.3477238385320334</v>
+        <v>1.004114212775249</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07216830681410968</v>
+        <v>0.02826039433215399</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.7023249287747859</v>
+        <v>0.8107419016535005</v>
       </c>
       <c r="H22">
-        <v>0.7566727911243731</v>
+        <v>0.4428093372782058</v>
       </c>
       <c r="I22">
-        <v>0.6428325364732785</v>
+        <v>0.2860398739720864</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3011388859071218</v>
+        <v>0.6043856001182206</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.16958400969861</v>
+        <v>5.988651285044</v>
       </c>
       <c r="C23">
-        <v>0.3370104039234718</v>
+        <v>0.9680195691011875</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07236474735342924</v>
+        <v>0.02815617706295193</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.7012963419519735</v>
+        <v>0.7806271072689981</v>
       </c>
       <c r="H23">
-        <v>0.7588272695471261</v>
+        <v>0.4333197492201322</v>
       </c>
       <c r="I23">
-        <v>0.6468859513306171</v>
+        <v>0.2826630699584669</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.295650895982277</v>
+        <v>0.5813258596437834</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.915523396117692</v>
+        <v>5.098569086918872</v>
       </c>
       <c r="C24">
-        <v>0.2962913415436788</v>
+        <v>0.8328403437701581</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07316992481463558</v>
+        <v>0.02790104916302916</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.699032172349618</v>
+        <v>0.6763469058341798</v>
       </c>
       <c r="H24">
-        <v>0.7681547188548876</v>
+        <v>0.4023477871942021</v>
       </c>
       <c r="I24">
-        <v>0.663485169776596</v>
+        <v>0.2753512479740508</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2750974825943899</v>
+        <v>0.495757874959196</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.642075906912055</v>
+        <v>4.155385294421308</v>
       </c>
       <c r="C25">
-        <v>0.2520647889296583</v>
+        <v>0.6894519377222821</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07416921855167402</v>
+        <v>0.02789608639291963</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7000242516108699</v>
+        <v>0.5813899752038623</v>
       </c>
       <c r="H25">
-        <v>0.7806909851458101</v>
+        <v>0.378010119413247</v>
       </c>
       <c r="I25">
-        <v>0.684029992913505</v>
+        <v>0.2775115276647533</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2534202567866828</v>
+        <v>0.4065269198073906</v>
       </c>
       <c r="M25">
         <v>0</v>
